--- a/nok-docs/02_design/90_db/90_DB設計.xlsx
+++ b/nok-docs/02_design/90_db/90_DB設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okazaki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nok-app\git\nok\nok-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD78A2-0401-4493-AC08-AC4B791B9ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6683FD7F-B80F-4EF6-B691-A8CA27311554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1050" windowWidth="26355" windowHeight="14400" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="10350" yWindow="735" windowWidth="18270" windowHeight="17085" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -113,6 +113,98 @@
   <si>
     <t>CRYPT</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOGIN_USER_DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインユーザ情報</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ログインID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_LOGIN_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>バージョン情報</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REG_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード有効期限</t>
+    <rPh sb="5" eb="9">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PASSWORD_EXPIRE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>DATE</t>
   </si>
 </sst>
 </file>
@@ -536,7 +628,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -591,79 +683,143 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>

--- a/nok-docs/02_design/90_db/90_DB設計.xlsx
+++ b/nok-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nok-app\git\nok\nok-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6683FD7F-B80F-4EF6-B691-A8CA27311554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D223A664-6243-4578-813E-1373D1774A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="735" windowWidth="18270" windowHeight="17085" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="2595" yWindow="675" windowWidth="22065" windowHeight="17085" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -205,6 +205,32 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAIL_ADDRESS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>256</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ化させて保持する</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -622,13 +648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:A13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -718,17 +742,21 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
@@ -743,16 +771,20 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -766,13 +798,13 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -789,13 +821,13 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -812,10 +844,10 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>20</v>
@@ -825,14 +857,24 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1279,14 +1321,27 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K42" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:K43" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H42" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H43" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E42 K2:K42" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E43 K2:K43" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1303,7 +1358,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/nok-docs/02_design/90_db/90_DB設計.xlsx
+++ b/nok-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nok-app\git\nok\nok-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D223A664-6243-4578-813E-1373D1774A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C018D0F3-AD13-4044-89BA-1EC7DE72563A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="675" windowWidth="22065" windowHeight="17085" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="210" yWindow="8655" windowWidth="22065" windowHeight="8535" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -230,6 +230,14 @@
     <rPh sb="8" eb="10">
       <t>ホジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -648,11 +656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -662,16 +670,17 @@
     <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -688,25 +697,28 @@
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -721,19 +733,22 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -745,22 +760,23 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -771,23 +787,26 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -798,19 +817,22 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -821,19 +843,22 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -844,19 +869,22 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -867,19 +895,22 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -891,8 +922,9 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -904,8 +936,9 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -917,8 +950,9 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -930,8 +964,9 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -943,8 +978,9 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -956,8 +992,9 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -969,8 +1006,9 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -982,8 +1020,9 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -995,8 +1034,9 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1008,8 +1048,9 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1021,8 +1062,9 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1034,8 +1076,9 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1047,8 +1090,9 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1060,8 +1104,9 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1073,8 +1118,9 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1086,8 +1132,9 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1099,8 +1146,9 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1112,8 +1160,9 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1125,8 +1174,9 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1138,8 +1188,9 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1151,8 +1202,9 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1164,8 +1216,9 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1177,8 +1230,9 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1190,8 +1244,9 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1203,8 +1258,9 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1216,8 +1272,9 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1229,8 +1286,9 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1242,8 +1300,9 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1255,8 +1314,9 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1268,8 +1328,9 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1281,8 +1342,9 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1294,8 +1356,9 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1307,8 +1370,9 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1320,8 +1384,9 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1333,20 +1398,21 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K43" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L43" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H43" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I43" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E43 K2:K43" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L43 C2:F43" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="35" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="32" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/nok-docs/02_design/90_db/90_DB設計.xlsx
+++ b/nok-docs/02_design/90_db/90_DB設計.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nok-app\git\nok\nok-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C018D0F3-AD13-4044-89BA-1EC7DE72563A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EF9E41-930E-4CBB-8390-B59F7DC9DCA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="8655" windowWidth="22065" windowHeight="8535" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="6810" yWindow="1365" windowWidth="21600" windowHeight="15960" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -238,6 +238,25 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールユーザ情報</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAIL_USER_DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザメールID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_SER_MAIL_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -656,11 +675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -757,23 +776,25 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -790,20 +811,16 @@
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -817,16 +834,16 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -843,16 +860,16 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -872,10 +889,10 @@
         <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>20</v>
@@ -886,96 +903,154 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1358,56 +1433,14 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L43" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L40" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I43" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I40" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L43 C2:F43" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F40 L2:L40" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/nok-docs/02_design/90_db/90_DB設計.xlsx
+++ b/nok-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nok-app\git\nok\nok-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EF9E41-930E-4CBB-8390-B59F7DC9DCA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF0792E-B864-4426-8BB8-3CEED0563A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="1365" windowWidth="21600" windowHeight="15960" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="765" yWindow="1785" windowWidth="25335" windowHeight="15960" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -252,11 +252,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザメールID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_SER_MAIL_ID</t>
+    <t>メールユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_MAIL_USER_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム名(論理名)</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム名(物理名)</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -679,7 +693,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -694,7 +708,7 @@
     <col min="8" max="8" width="30.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
@@ -719,10 +733,10 @@
         <v>35</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>6</v>
@@ -941,7 +955,9 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
@@ -967,7 +983,9 @@
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>30</v>
       </c>
@@ -993,7 +1011,9 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1017,7 +1037,9 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1041,7 +1063,9 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1440,7 +1464,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I40" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F40 L2:L40" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L40 C2:F40" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/nok-docs/02_design/90_db/90_DB設計.xlsx
+++ b/nok-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nok-app\git\nok\nok-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF0792E-B864-4426-8BB8-3CEED0563A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48204154-9EBB-4039-903F-86732188C581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="1785" windowWidth="25335" windowHeight="15960" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="900" yWindow="720" windowWidth="25335" windowHeight="15960" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="61">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -271,6 +271,72 @@
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定時情報マスタ</t>
+  </si>
+  <si>
+    <t>REGULAR_WORK_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定時情報マスタID</t>
+  </si>
+  <si>
+    <t>定時情報マスタID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始業時間(時)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始業時間(分)</t>
+  </si>
+  <si>
+    <t>終業時間(時)</t>
+  </si>
+  <si>
+    <t>終業時間(分)</t>
+  </si>
+  <si>
+    <t>BEGIN_HOUR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BEGIN_MINUTE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>END_HOUR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>END_MINUTE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠ユーザマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORK_USER_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID</t>
+  </si>
+  <si>
+    <t>勤怠ユーザマスタID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_WORK_USER_MT_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_REGULAR_WORK_MT_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -693,7 +759,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1080,197 +1146,373 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>

--- a/nok-docs/02_design/90_db/90_DB設計.xlsx
+++ b/nok-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nok-app\git\nok\nok-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48204154-9EBB-4039-903F-86732188C581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381578AC-4A07-4F16-BA09-450B8F2FB984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="720" windowWidth="25335" windowHeight="15960" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="15" yWindow="675" windowWidth="28350" windowHeight="15960" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="94">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -337,6 +337,290 @@
   </si>
   <si>
     <t>SEQ_REGULAR_WORK_MT_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日別勤怠登録情報</t>
+    <rPh sb="0" eb="2">
+      <t>ニチベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日別勤怠登録情報ID</t>
+  </si>
+  <si>
+    <t>勤怠ユーザマスタID</t>
+  </si>
+  <si>
+    <t>勤怠登録日</t>
+  </si>
+  <si>
+    <t>承認ステータス</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>DAILY_WORK_ENTRY_DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_DAILY_WORK_ENTRY_DATA_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENTRY_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOTE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザがログインするためのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの有効期限</t>
+    <rPh sb="6" eb="10">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの登録日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードのバージョン情報(初期値=1)</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザのメールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードを一意に識別するID</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザがログインするためのID
+当該レコードを一意に識別するID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定時時刻の始業時間(時)</t>
+    <rPh sb="0" eb="2">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>シギョウジカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定時時刻の始業時間(分)</t>
+    <rPh sb="0" eb="2">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>シギョウジカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定時時刻の終業時間(時)</t>
+    <rPh sb="0" eb="2">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定時時刻の終業時間(分)</t>
+    <rPh sb="0" eb="2">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定時情報マスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定時情報マスタを一意に識別するID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠ユーザマスタを一意に識別するID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの始業時間(時)</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの始業時間(分)</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの終業時間(時)</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの終業時間(分)</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの備考情報</t>
+    <rPh sb="7" eb="9">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの承認状態</t>
+    <rPh sb="7" eb="9">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -422,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,6 +724,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,11 +1042,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -771,10 +1058,10 @@
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="53.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
@@ -817,7 +1104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -844,7 +1131,9 @@
         <v>16</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -900,7 +1189,9 @@
         <v>29</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -926,7 +1217,9 @@
         <v>16</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -952,7 +1245,9 @@
         <v>20</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -978,7 +1273,9 @@
         <v>20</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
@@ -1008,7 +1305,9 @@
         <v>16</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -1034,7 +1333,9 @@
         <v>16</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
@@ -1064,7 +1365,9 @@
       <c r="J10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -1090,7 +1393,9 @@
         <v>16</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -1116,7 +1421,9 @@
         <v>20</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
@@ -1142,12 +1449,14 @@
         <v>20</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>44</v>
@@ -1172,7 +1481,9 @@
         <v>16</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
@@ -1198,7 +1509,9 @@
         <v>16</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
@@ -1224,7 +1537,9 @@
         <v>16</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
@@ -1250,7 +1565,9 @@
         <v>16</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
@@ -1276,7 +1593,9 @@
         <v>16</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
@@ -1302,7 +1621,9 @@
         <v>16</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -1328,7 +1649,9 @@
         <v>20</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
@@ -1354,7 +1677,9 @@
         <v>20</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
@@ -1384,7 +1709,9 @@
         <v>16</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
@@ -1410,7 +1737,9 @@
         <v>16</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
@@ -1436,7 +1765,9 @@
         <v>16</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
@@ -1462,7 +1793,9 @@
         <v>16</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
@@ -1488,7 +1821,9 @@
         <v>20</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
@@ -1514,175 +1849,351 @@
         <v>20</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="K32" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="K34" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="K37" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
@@ -1699,19 +2210,537 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L40" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L77" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I40" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I77" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L40 C2:F40" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L77 C2:F77" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="32" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="29" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/nok-docs/02_design/90_db/90_DB設計.xlsx
+++ b/nok-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nok-app\git\nok\nok-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381578AC-4A07-4F16-BA09-450B8F2FB984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8985E7B3-ECD9-4384-928E-87210D9411FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="675" windowWidth="28350" windowHeight="15960" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="315" yWindow="1080" windowWidth="22905" windowHeight="15030" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="95">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -353,9 +353,6 @@
     <t>勤怠ユーザマスタID</t>
   </si>
   <si>
-    <t>勤怠登録日</t>
-  </si>
-  <si>
     <t>承認ステータス</t>
   </si>
   <si>
@@ -367,10 +364,6 @@
   </si>
   <si>
     <t>SEQ_DAILY_WORK_ENTRY_DATA_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ENTRY_DATE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -620,6 +613,27 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORK_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの勤怠日(YYYYMMDD)</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1046,7 +1060,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1132,7 +1146,7 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L2" s="2"/>
     </row>
@@ -1190,7 +1204,7 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L4" s="2"/>
     </row>
@@ -1218,7 +1232,7 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L5" s="2"/>
     </row>
@@ -1246,7 +1260,7 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L6" s="2"/>
     </row>
@@ -1274,7 +1288,7 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -1306,7 +1320,7 @@
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L8" s="2"/>
     </row>
@@ -1334,7 +1348,7 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L9" s="2"/>
     </row>
@@ -1366,7 +1380,7 @@
         <v>32</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L10" s="2"/>
     </row>
@@ -1394,7 +1408,7 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L11" s="2"/>
     </row>
@@ -1422,7 +1436,7 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L12" s="2"/>
     </row>
@@ -1450,13 +1464,13 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>44</v>
@@ -1482,7 +1496,7 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L14" s="2"/>
     </row>
@@ -1510,7 +1524,7 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L15" s="2"/>
     </row>
@@ -1538,7 +1552,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L16" s="2"/>
     </row>
@@ -1566,7 +1580,7 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L17" s="2"/>
     </row>
@@ -1594,7 +1608,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L18" s="2"/>
     </row>
@@ -1622,7 +1636,7 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L19" s="2"/>
     </row>
@@ -1650,7 +1664,7 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L20" s="2"/>
     </row>
@@ -1678,7 +1692,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L21" s="2"/>
     </row>
@@ -1710,7 +1724,7 @@
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L22" s="2"/>
     </row>
@@ -1738,7 +1752,7 @@
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L23" s="2"/>
     </row>
@@ -1766,7 +1780,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L24" s="2"/>
     </row>
@@ -1794,7 +1808,7 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L25" s="2"/>
     </row>
@@ -1822,7 +1836,7 @@
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L26" s="2"/>
     </row>
@@ -1850,7 +1864,7 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L27" s="2"/>
     </row>
@@ -1859,7 +1873,7 @@
         <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>13</v>
@@ -1875,14 +1889,14 @@
         <v>62</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L28" s="2"/>
     </row>
@@ -1891,7 +1905,7 @@
         <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1910,7 +1924,7 @@
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L29" s="2"/>
     </row>
@@ -1919,7 +1933,7 @@
         <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1928,17 +1942,17 @@
         <v>13</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="L30" s="2"/>
     </row>
@@ -1947,7 +1961,7 @@
         <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1966,7 +1980,7 @@
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L31" s="2"/>
     </row>
@@ -1975,7 +1989,7 @@
         <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1994,7 +2008,7 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L32" s="2"/>
     </row>
@@ -2003,7 +2017,7 @@
         <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2022,7 +2036,7 @@
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -2031,7 +2045,7 @@
         <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2050,7 +2064,7 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L34" s="2"/>
     </row>
@@ -2059,7 +2073,7 @@
         <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2068,19 +2082,19 @@
         <v>13</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L35" s="2"/>
     </row>
@@ -2089,17 +2103,17 @@
         <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>28</v>
@@ -2108,7 +2122,7 @@
         <v>32</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L36" s="2"/>
     </row>
@@ -2117,7 +2131,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2136,7 +2150,7 @@
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L37" s="2"/>
     </row>
@@ -2145,7 +2159,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2164,7 +2178,7 @@
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L38" s="2"/>
     </row>
@@ -2173,7 +2187,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2192,7 +2206,7 @@
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L39" s="2"/>
     </row>
@@ -2735,7 +2749,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I77" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L77 C2:F77" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F77 L2:L77" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/nok-docs/02_design/90_db/90_DB設計.xlsx
+++ b/nok-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nok-app\git\nok\nok-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8985E7B3-ECD9-4384-928E-87210D9411FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6759567-16C3-4817-9EBC-551B5CE73057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="1080" windowWidth="22905" windowHeight="15030" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="570" yWindow="1755" windowWidth="21600" windowHeight="12855" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
-    <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
+    <sheet name="HOGE" sheetId="3" r:id="rId2"/>
+    <sheet name="HUGA" sheetId="4" r:id="rId3"/>
+    <sheet name="TEMPLATE" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="153">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -634,6 +636,279 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>え</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>か</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/7/27 00:00:01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/7/27 00:00:03</t>
+  </si>
+  <si>
+    <t>2020/7/27 00:00:04</t>
+  </si>
+  <si>
+    <t>2020/7/27 00:00:05</t>
+  </si>
+  <si>
+    <t>2020/7/27 00:00:06</t>
+  </si>
+  <si>
+    <t>2020/7/27 00:00:07</t>
+  </si>
+  <si>
+    <t>2020/7/27 00:00:02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>試験名1</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験名2</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験名3</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験名4</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験名5</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験名6</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験名7</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/7/26 00:00:01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/7/26 00:00:02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/7/26 00:00:03</t>
+  </si>
+  <si>
+    <t>2020/7/26 00:00:04</t>
+  </si>
+  <si>
+    <t>2020/7/26 00:00:05</t>
+  </si>
+  <si>
+    <t>2020/7/26 00:00:06</t>
+  </si>
+  <si>
+    <t>2020/7/26 00:00:07</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>試験名8</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験名9</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/7/26 00:00:08</t>
+  </si>
+  <si>
+    <t>2020/7/26 00:00:09</t>
+  </si>
+  <si>
+    <t>HOGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンスID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1059,8 +1334,8 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2211,43 +2486,81 @@
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -2749,7 +3062,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I77" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F77 L2:L77" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L77 C2:F77" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2759,6 +3072,246 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156E69B-A368-43FC-B871-296031B2A5E5}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BD5FC8-F97D-4D1B-A863-394CC3F3B1A4}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8226E27-9270-4524-A864-822221B9E79E}">
   <dimension ref="A1:J69"/>
   <sheetViews>

--- a/nok-docs/02_design/90_db/90_DB設計.xlsx
+++ b/nok-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nok-app\git\nok\nok-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6759567-16C3-4817-9EBC-551B5CE73057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7472CEC-E572-4828-B6DE-0A7B5DBF9C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1755" windowWidth="21600" windowHeight="12855" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" activeTab="1" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
-    <sheet name="HOGE" sheetId="3" r:id="rId2"/>
-    <sheet name="HUGA" sheetId="4" r:id="rId3"/>
-    <sheet name="TEMPLATE" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="BUSINESS_CALENDAR_MT" sheetId="3" r:id="rId2"/>
+    <sheet name="TEMPLATE" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BUSINESS_CALENDAR_MT!$A$1:$F$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="296">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -640,269 +640,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>い</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>え</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>か</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>き</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/7/27 00:00:01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/7/27 00:00:03</t>
-  </si>
-  <si>
-    <t>2020/7/27 00:00:04</t>
-  </si>
-  <si>
-    <t>2020/7/27 00:00:05</t>
-  </si>
-  <si>
-    <t>2020/7/27 00:00:06</t>
-  </si>
-  <si>
-    <t>2020/7/27 00:00:07</t>
-  </si>
-  <si>
-    <t>2020/7/27 00:00:02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>試験名1</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試験名2</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試験名3</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試験名4</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試験名5</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試験名6</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試験名7</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/7/26 00:00:01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/7/26 00:00:02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/7/26 00:00:03</t>
-  </si>
-  <si>
-    <t>2020/7/26 00:00:04</t>
-  </si>
-  <si>
-    <t>2020/7/26 00:00:05</t>
-  </si>
-  <si>
-    <t>2020/7/26 00:00:06</t>
-  </si>
-  <si>
-    <t>2020/7/26 00:00:07</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>試験名8</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試験名9</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/7/26 00:00:08</t>
-  </si>
-  <si>
-    <t>2020/7/26 00:00:09</t>
-  </si>
-  <si>
-    <t>HOGE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ほげ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シーケンスID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
+    <t>営業日マスタ</t>
+    <rPh sb="0" eb="3">
+      <t>エイギョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUSINESS_CALENDAR_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業日マスタID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -911,13 +660,636 @@
       <t>ヒヅケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業日フラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業日マスタを一意に識別するID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの日付(YYYYMMDD)</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:非営業日、1:営業日</t>
+    <rPh sb="2" eb="6">
+      <t>ヒエイギョウビ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>エイギョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUSINESS_FLG</t>
+  </si>
+  <si>
+    <t>BUSINESS_FLG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_BUSINESS_CALENDAR_MT_ID</t>
+  </si>
+  <si>
+    <t>SEQ_BUSINESS_CALENDAR_MT_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>REG_DATE</t>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/07/26 12:34:56</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/07/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2020/07/03</t>
+  </si>
+  <si>
+    <t>2020/07/04</t>
+  </si>
+  <si>
+    <t>2020/07/05</t>
+  </si>
+  <si>
+    <t>2020/07/06</t>
+  </si>
+  <si>
+    <t>2020/07/07</t>
+  </si>
+  <si>
+    <t>2020/07/08</t>
+  </si>
+  <si>
+    <t>2020/07/09</t>
+  </si>
+  <si>
+    <t>2020/07/10</t>
+  </si>
+  <si>
+    <t>2020/07/11</t>
+  </si>
+  <si>
+    <t>2020/07/12</t>
+  </si>
+  <si>
+    <t>2020/07/13</t>
+  </si>
+  <si>
+    <t>2020/07/14</t>
+  </si>
+  <si>
+    <t>2020/07/15</t>
+  </si>
+  <si>
+    <t>2020/07/16</t>
+  </si>
+  <si>
+    <t>2020/07/17</t>
+  </si>
+  <si>
+    <t>2020/07/18</t>
+  </si>
+  <si>
+    <t>2020/07/19</t>
+  </si>
+  <si>
+    <t>2020/07/20</t>
+  </si>
+  <si>
+    <t>2020/07/21</t>
+  </si>
+  <si>
+    <t>2020/07/22</t>
+  </si>
+  <si>
+    <t>2020/07/23</t>
+  </si>
+  <si>
+    <t>2020/07/24</t>
+  </si>
+  <si>
+    <t>2020/07/25</t>
+  </si>
+  <si>
+    <t>2020/07/26</t>
+  </si>
+  <si>
+    <t>2020/07/27</t>
+  </si>
+  <si>
+    <t>2020/07/28</t>
+  </si>
+  <si>
+    <t>2020/07/29</t>
+  </si>
+  <si>
+    <t>2020/07/30</t>
+  </si>
+  <si>
+    <t>2020/07/31</t>
+  </si>
+  <si>
+    <t>2020/08/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/08/02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/08/03</t>
+  </si>
+  <si>
+    <t>2020/08/04</t>
+  </si>
+  <si>
+    <t>2020/08/05</t>
+  </si>
+  <si>
+    <t>2020/08/06</t>
+  </si>
+  <si>
+    <t>2020/08/07</t>
+  </si>
+  <si>
+    <t>2020/08/08</t>
+  </si>
+  <si>
+    <t>2020/08/09</t>
+  </si>
+  <si>
+    <t>2020/08/10</t>
+  </si>
+  <si>
+    <t>2020/08/11</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>2020/08/12</t>
+  </si>
+  <si>
+    <t>2020/08/13</t>
+  </si>
+  <si>
+    <t>2020/08/14</t>
+  </si>
+  <si>
+    <t>2020/08/15</t>
+  </si>
+  <si>
+    <t>2020/08/16</t>
+  </si>
+  <si>
+    <t>2020/08/17</t>
+  </si>
+  <si>
+    <t>2020/08/18</t>
+  </si>
+  <si>
+    <t>2020/08/19</t>
+  </si>
+  <si>
+    <t>2020/08/20</t>
+  </si>
+  <si>
+    <t>2020/08/21</t>
+  </si>
+  <si>
+    <t>2020/08/22</t>
+  </si>
+  <si>
+    <t>2020/08/23</t>
+  </si>
+  <si>
+    <t>2020/08/24</t>
+  </si>
+  <si>
+    <t>2020/08/25</t>
+  </si>
+  <si>
+    <t>2020/08/26</t>
+  </si>
+  <si>
+    <t>2020/08/27</t>
+  </si>
+  <si>
+    <t>2020/08/28</t>
+  </si>
+  <si>
+    <t>2020/08/29</t>
+  </si>
+  <si>
+    <t>2020/08/30</t>
+  </si>
+  <si>
+    <t>2020/08/31</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>2020/09/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/09/02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/09/03</t>
+  </si>
+  <si>
+    <t>2020/09/04</t>
+  </si>
+  <si>
+    <t>2020/09/05</t>
+  </si>
+  <si>
+    <t>2020/09/06</t>
+  </si>
+  <si>
+    <t>2020/09/07</t>
+  </si>
+  <si>
+    <t>2020/09/08</t>
+  </si>
+  <si>
+    <t>2020/09/09</t>
+  </si>
+  <si>
+    <t>2020/09/10</t>
+  </si>
+  <si>
+    <t>2020/09/11</t>
+  </si>
+  <si>
+    <t>2020/09/12</t>
+  </si>
+  <si>
+    <t>2020/09/13</t>
+  </si>
+  <si>
+    <t>2020/09/14</t>
+  </si>
+  <si>
+    <t>2020/09/15</t>
+  </si>
+  <si>
+    <t>2020/09/16</t>
+  </si>
+  <si>
+    <t>2020/09/17</t>
+  </si>
+  <si>
+    <t>2020/09/18</t>
+  </si>
+  <si>
+    <t>2020/09/19</t>
+  </si>
+  <si>
+    <t>2020/09/20</t>
+  </si>
+  <si>
+    <t>2020/09/21</t>
+  </si>
+  <si>
+    <t>2020/09/22</t>
+  </si>
+  <si>
+    <t>2020/09/23</t>
+  </si>
+  <si>
+    <t>2020/09/24</t>
+  </si>
+  <si>
+    <t>2020/09/25</t>
+  </si>
+  <si>
+    <t>2020/09/26</t>
+  </si>
+  <si>
+    <t>2020/09/27</t>
+  </si>
+  <si>
+    <t>2020/09/28</t>
+  </si>
+  <si>
+    <t>2020/09/29</t>
+  </si>
+  <si>
+    <t>2020/09/30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,6 +1320,30 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -995,7 +1391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1016,6 +1412,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,9 +1741,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2487,10 +2895,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
@@ -2503,108 +2911,160 @@
         <v>13</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="K40" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G41" s="2" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K41" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G42" s="2" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="K44" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="K45" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
@@ -3073,107 +3533,1883 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156E69B-A368-43FC-B871-296031B2A5E5}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="6" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>115</v>
+      <c r="D5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A92" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F93" xr:uid="{7437B8AE-68E6-4EA9-81EC-03BE82EA3D30}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3181,137 +5417,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BD5FC8-F97D-4D1B-A863-394CC3F3B1A4}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8226E27-9270-4524-A864-822221B9E79E}">
   <dimension ref="A1:J69"/>
   <sheetViews>

--- a/nok-docs/02_design/90_db/90_DB設計.xlsx
+++ b/nok-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nok-app\git\nok\nok-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7472CEC-E572-4828-B6DE-0A7B5DBF9C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1984EF93-2052-417A-938A-B2B13A3D88D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" activeTab="1" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="8535" yWindow="630" windowWidth="20085" windowHeight="15915" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -1255,34 +1255,35 @@
     <t>2020/09/20</t>
   </si>
   <si>
+    <t>2020/09/22</t>
+  </si>
+  <si>
+    <t>2020/09/23</t>
+  </si>
+  <si>
+    <t>2020/09/24</t>
+  </si>
+  <si>
+    <t>2020/09/25</t>
+  </si>
+  <si>
+    <t>2020/09/26</t>
+  </si>
+  <si>
+    <t>2020/09/27</t>
+  </si>
+  <si>
+    <t>2020/09/28</t>
+  </si>
+  <si>
+    <t>2020/09/29</t>
+  </si>
+  <si>
+    <t>2020/09/30</t>
+  </si>
+  <si>
     <t>2020/09/21</t>
-  </si>
-  <si>
-    <t>2020/09/22</t>
-  </si>
-  <si>
-    <t>2020/09/23</t>
-  </si>
-  <si>
-    <t>2020/09/24</t>
-  </si>
-  <si>
-    <t>2020/09/25</t>
-  </si>
-  <si>
-    <t>2020/09/26</t>
-  </si>
-  <si>
-    <t>2020/09/27</t>
-  </si>
-  <si>
-    <t>2020/09/28</t>
-  </si>
-  <si>
-    <t>2020/09/29</t>
-  </si>
-  <si>
-    <t>2020/09/30</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1741,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
@@ -3535,8 +3536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156E69B-A368-43FC-B871-296031B2A5E5}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4015,8 +4016,8 @@
       <c r="B24" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>111</v>
+      <c r="C24" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>111</v>
@@ -4035,8 +4036,8 @@
       <c r="B25" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>111</v>
+      <c r="C25" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>111</v>
@@ -4375,8 +4376,8 @@
       <c r="B42" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>111</v>
+      <c r="C42" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>111</v>
@@ -4596,7 +4597,7 @@
         <v>205</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>111</v>
@@ -4775,8 +4776,8 @@
       <c r="B62" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>111</v>
+      <c r="C62" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>111</v>
@@ -4875,8 +4876,8 @@
       <c r="B67" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>114</v>
+      <c r="C67" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>111</v>
@@ -4895,8 +4896,8 @@
       <c r="B68" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>111</v>
+      <c r="C68" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>111</v>
@@ -4915,8 +4916,8 @@
       <c r="B69" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>111</v>
+      <c r="C69" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>111</v>
@@ -4995,8 +4996,8 @@
       <c r="B73" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>114</v>
+      <c r="C73" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>111</v>
@@ -5015,8 +5016,8 @@
       <c r="B74" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>114</v>
+      <c r="C74" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>111</v>
@@ -5035,8 +5036,8 @@
       <c r="B75" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>111</v>
+      <c r="C75" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>111</v>
@@ -5055,8 +5056,8 @@
       <c r="B76" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>111</v>
+      <c r="C76" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>111</v>
@@ -5135,8 +5136,8 @@
       <c r="B80" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>114</v>
+      <c r="C80" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>111</v>
@@ -5155,8 +5156,8 @@
       <c r="B81" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>114</v>
+      <c r="C81" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>111</v>
@@ -5175,8 +5176,8 @@
       <c r="B82" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>111</v>
+      <c r="C82" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>111</v>
@@ -5195,8 +5196,8 @@
       <c r="B83" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>111</v>
+      <c r="C83" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>111</v>
@@ -5213,10 +5214,10 @@
         <v>256</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>111</v>
+        <v>295</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>111</v>
@@ -5233,10 +5234,10 @@
         <v>257</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>111</v>
+        <v>286</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>111</v>
@@ -5253,7 +5254,7 @@
         <v>258</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>111</v>
@@ -5273,10 +5274,10 @@
         <v>259</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>114</v>
+        <v>288</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>111</v>
@@ -5293,10 +5294,10 @@
         <v>260</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>114</v>
+        <v>289</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>111</v>
@@ -5313,10 +5314,10 @@
         <v>261</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>111</v>
+        <v>290</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>111</v>
@@ -5333,10 +5334,10 @@
         <v>262</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>111</v>
+        <v>291</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>111</v>
@@ -5353,7 +5354,7 @@
         <v>263</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>111</v>
@@ -5373,7 +5374,7 @@
         <v>264</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>111</v>
@@ -5393,7 +5394,7 @@
         <v>265</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>111</v>

--- a/nok-docs/02_design/90_db/90_DB設計.xlsx
+++ b/nok-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nok-app\git\nok\nok-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1984EF93-2052-417A-938A-B2B13A3D88D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F1A9E2-D2DB-4795-80AD-8992A755B049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="630" windowWidth="20085" windowHeight="15915" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="1110" yWindow="3495" windowWidth="25200" windowHeight="14115" tabRatio="411" activeTab="1" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="TEMPLATE" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BUSINESS_CALENDAR_MT!$A$1:$F$93</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BUSINESS_CALENDAR_MT!$A$1:$G$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="309">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -1283,6 +1283,77 @@
   </si>
   <si>
     <t>2020/09/21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEEKDAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1:日曜日、2:月曜日、3:火曜日、4:水曜日、5:木曜日、6:金曜日、7:土曜日</t>
+    <rPh sb="8" eb="11">
+      <t>ゲツヨウビ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カヨウビ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>スイヨウビ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>モクヨウビ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>キニョウビ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ドヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1740,11 +1811,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2968,19 +3039,19 @@
         <v>13</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>99</v>
+        <v>296</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>105</v>
+        <v>299</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>28</v>
+        <v>297</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>36</v>
+        <v>298</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>102</v>
+        <v>304</v>
       </c>
       <c r="L42" s="2"/>
     </row>
@@ -2998,17 +3069,19 @@
         <v>13</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="K43" s="2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="L43" s="2"/>
     </row>
@@ -3026,17 +3099,17 @@
         <v>13</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L44" s="2"/>
     </row>
@@ -3054,32 +3127,46 @@
         <v>13</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
@@ -3516,14 +3603,28 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L77" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L78" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I77" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I78" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L77 C2:F77" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L78 C2:F78" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3534,22 +3635,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156E69B-A368-43FC-B871-296031B2A5E5}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="6" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="7" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>106</v>
       </c>
@@ -3557,19 +3659,22 @@
         <v>29</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>111</v>
       </c>
@@ -3577,19 +3682,22 @@
         <v>113</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>115</v>
       </c>
@@ -3597,19 +3705,22 @@
         <v>113</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>111</v>
+        <v>302</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>116</v>
       </c>
@@ -3617,59 +3728,68 @@
         <v>142</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>119</v>
       </c>
@@ -3677,19 +3797,22 @@
         <v>145</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>120</v>
       </c>
@@ -3697,19 +3820,22 @@
         <v>146</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>121</v>
       </c>
@@ -3717,19 +3843,22 @@
         <v>147</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>122</v>
       </c>
@@ -3737,19 +3866,22 @@
         <v>148</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>123</v>
       </c>
@@ -3757,59 +3889,68 @@
         <v>149</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>124</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>126</v>
       </c>
@@ -3817,19 +3958,22 @@
         <v>152</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G14" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>127</v>
       </c>
@@ -3837,19 +3981,22 @@
         <v>153</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G15" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
         <v>128</v>
       </c>
@@ -3857,19 +4004,22 @@
         <v>154</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>129</v>
       </c>
@@ -3877,19 +4027,22 @@
         <v>155</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>130</v>
       </c>
@@ -3897,59 +4050,68 @@
         <v>156</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G18" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E19" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G19" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E20" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
         <v>133</v>
       </c>
@@ -3957,19 +4119,22 @@
         <v>159</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G21" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
         <v>134</v>
       </c>
@@ -3977,19 +4142,22 @@
         <v>160</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G22" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
         <v>135</v>
       </c>
@@ -3997,99 +4165,114 @@
         <v>161</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G23" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E24" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G24" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E25" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G25" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E26" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G26" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E27" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G27" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
         <v>140</v>
       </c>
@@ -4097,19 +4280,22 @@
         <v>166</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G28" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>141</v>
       </c>
@@ -4117,19 +4303,22 @@
         <v>167</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G29" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
         <v>182</v>
       </c>
@@ -4137,19 +4326,22 @@
         <v>168</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G30" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
         <v>183</v>
       </c>
@@ -4157,19 +4349,22 @@
         <v>169</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G31" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
         <v>184</v>
       </c>
@@ -4177,59 +4372,68 @@
         <v>170</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G32" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E33" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G33" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G34" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>187</v>
       </c>
@@ -4237,19 +4441,22 @@
         <v>173</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G35" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
         <v>188</v>
       </c>
@@ -4257,19 +4464,22 @@
         <v>174</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G36" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
         <v>189</v>
       </c>
@@ -4277,19 +4487,22 @@
         <v>175</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G37" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
         <v>190</v>
       </c>
@@ -4297,19 +4510,22 @@
         <v>176</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G38" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
         <v>191</v>
       </c>
@@ -4317,79 +4533,91 @@
         <v>177</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G39" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E40" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G40" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
         <v>193</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E41" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G41" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E42" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G42" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="8" t="s">
         <v>195</v>
       </c>
@@ -4397,19 +4625,22 @@
         <v>181</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G43" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
         <v>216</v>
       </c>
@@ -4417,19 +4648,22 @@
         <v>196</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G44" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
         <v>217</v>
       </c>
@@ -4437,19 +4671,22 @@
         <v>197</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G45" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
         <v>218</v>
       </c>
@@ -4457,59 +4694,68 @@
         <v>198</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G46" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="8" t="s">
         <v>219</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E47" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G47" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="8" t="s">
         <v>220</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E48" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G48" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
         <v>221</v>
       </c>
@@ -4517,19 +4763,22 @@
         <v>201</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G49" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
         <v>222</v>
       </c>
@@ -4537,19 +4786,22 @@
         <v>202</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G50" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
         <v>223</v>
       </c>
@@ -4557,19 +4809,22 @@
         <v>203</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G51" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="8" t="s">
         <v>224</v>
       </c>
@@ -4577,19 +4832,22 @@
         <v>204</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G52" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
         <v>225</v>
       </c>
@@ -4597,59 +4855,68 @@
         <v>205</v>
       </c>
       <c r="C53" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E53" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G53" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
         <v>226</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E54" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G54" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
         <v>227</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E55" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G55" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
         <v>228</v>
       </c>
@@ -4657,19 +4924,22 @@
         <v>208</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G56" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="8" t="s">
         <v>229</v>
       </c>
@@ -4677,19 +4947,22 @@
         <v>209</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G57" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="8" t="s">
         <v>230</v>
       </c>
@@ -4697,19 +4970,22 @@
         <v>210</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G58" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="8" t="s">
         <v>231</v>
       </c>
@@ -4717,19 +4993,22 @@
         <v>211</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G59" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
         <v>232</v>
       </c>
@@ -4737,59 +5016,68 @@
         <v>212</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G60" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="8" t="s">
         <v>233</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E61" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G61" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E62" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G62" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="8" t="s">
         <v>235</v>
       </c>
@@ -4797,19 +5085,22 @@
         <v>215</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G63" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
         <v>236</v>
       </c>
@@ -4817,19 +5108,22 @@
         <v>266</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G64" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="8" t="s">
         <v>237</v>
       </c>
@@ -4837,19 +5131,22 @@
         <v>267</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G65" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
         <v>238</v>
       </c>
@@ -4857,19 +5154,22 @@
         <v>268</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G66" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
         <v>239</v>
       </c>
@@ -4877,59 +5177,68 @@
         <v>269</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E67" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G67" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E68" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G68" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
         <v>241</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E69" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G69" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
         <v>242</v>
       </c>
@@ -4937,19 +5246,22 @@
         <v>272</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G70" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="8" t="s">
         <v>243</v>
       </c>
@@ -4957,19 +5269,22 @@
         <v>273</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G71" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
         <v>244</v>
       </c>
@@ -4977,19 +5292,22 @@
         <v>274</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G72" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
         <v>245</v>
       </c>
@@ -4997,19 +5315,22 @@
         <v>275</v>
       </c>
       <c r="C73" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E73" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G73" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
         <v>246</v>
       </c>
@@ -5017,59 +5338,68 @@
         <v>276</v>
       </c>
       <c r="C74" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E74" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G74" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
         <v>247</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E75" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G75" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
         <v>248</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E76" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G76" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
         <v>249</v>
       </c>
@@ -5077,19 +5407,22 @@
         <v>279</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G77" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
         <v>250</v>
       </c>
@@ -5097,19 +5430,22 @@
         <v>280</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G78" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="8" t="s">
         <v>251</v>
       </c>
@@ -5117,19 +5453,22 @@
         <v>281</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G79" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="8" t="s">
         <v>252</v>
       </c>
@@ -5137,19 +5476,22 @@
         <v>282</v>
       </c>
       <c r="C80" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E80" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G80" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="8" t="s">
         <v>253</v>
       </c>
@@ -5157,99 +5499,114 @@
         <v>283</v>
       </c>
       <c r="C81" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E81" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G81" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
         <v>254</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E82" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G82" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E83" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G83" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
         <v>256</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E84" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G84" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="8" t="s">
         <v>257</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E85" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G85" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
         <v>258</v>
       </c>
@@ -5257,19 +5614,22 @@
         <v>287</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G86" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="8" t="s">
         <v>259</v>
       </c>
@@ -5277,19 +5637,22 @@
         <v>288</v>
       </c>
       <c r="C87" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E87" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G87" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="8" t="s">
         <v>260</v>
       </c>
@@ -5297,59 +5660,68 @@
         <v>289</v>
       </c>
       <c r="C88" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D88" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E88" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G88" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="8" t="s">
         <v>261</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E89" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G89" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
         <v>262</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E90" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G90" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="8" t="s">
         <v>263</v>
       </c>
@@ -5357,19 +5729,22 @@
         <v>292</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G91" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="8" t="s">
         <v>264</v>
       </c>
@@ -5377,19 +5752,22 @@
         <v>293</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G92" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="8" t="s">
         <v>265</v>
       </c>
@@ -5397,20 +5775,23 @@
         <v>294</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>112</v>
       </c>
+      <c r="G93" s="8" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F93" xr:uid="{7437B8AE-68E6-4EA9-81EC-03BE82EA3D30}"/>
+  <autoFilter ref="A1:G93" xr:uid="{7437B8AE-68E6-4EA9-81EC-03BE82EA3D30}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
